--- a/Design Files/Jack in the Box BOM.xlsx
+++ b/Design Files/Jack in the Box BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>C1</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Digikey</t>
   </si>
   <si>
-    <t>Shielded Barrel Jack</t>
-  </si>
-  <si>
     <t>POT</t>
   </si>
   <si>
@@ -289,6 +286,12 @@
   </si>
   <si>
     <t>http://www.radioshack.com/graphics/uc/rsk/Support/ProductManuals/2750249_DS_EN.pdf</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Shielded Barrel Jack 5.5x2.5mm</t>
   </si>
 </sst>
 </file>
@@ -633,16 +636,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -653,28 +656,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -688,7 +691,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -701,8 +704,8 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H2">
-        <f>SUM(G2:G47)</f>
-        <v>32.07</v>
+        <f>SUM(G2:G70)</f>
+        <v>33.85</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -716,7 +719,7 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -725,7 +728,7 @@
         <v>1.21</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G42" si="0">F3*E3</f>
+        <f t="shared" ref="G3:G43" si="0">F3*E3</f>
         <v>1.21</v>
       </c>
     </row>
@@ -740,7 +743,7 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -764,7 +767,7 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -788,7 +791,7 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -802,7 +805,7 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -816,7 +819,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -830,7 +833,7 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -844,7 +847,7 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -858,7 +861,7 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -872,7 +875,7 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +889,7 @@
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -910,7 +913,7 @@
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -924,7 +927,7 @@
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +941,7 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -952,7 +955,7 @@
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -966,7 +969,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -980,7 +983,7 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -988,13 +991,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1012,23 +1015,23 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1.78</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>3.56</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1036,110 +1039,110 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>5.35</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>5.35</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24">
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>1.47</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>1.47</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25">
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>0.34</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1147,13 +1150,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1161,246 +1164,246 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>44</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38">
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>6.49</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <f t="shared" si="0"/>
         <v>6.49</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
+      <c r="H39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39">
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>0.94</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
         <v>59</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>2.36</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <f t="shared" si="0"/>
         <v>2.36</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41">
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>0.6</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42">
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43">
         <v>7</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>0.62</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <f t="shared" si="0"/>
         <v>4.34</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
@@ -1409,12 +1412,12 @@
         <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>52</v>
@@ -1423,12 +1426,12 @@
         <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
@@ -1437,12 +1440,12 @@
         <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
@@ -1451,12 +1454,26 @@
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H38" r:id="rId1"/>
+    <hyperlink ref="H39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
